--- a/data/output/FV2404_FV2310/ORDERS/17130.xlsx
+++ b/data/output/FV2404_FV2310/ORDERS/17130.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3136" uniqueCount="281">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="281">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -984,6 +984,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U144" totalsRowShown="0">
+  <autoFilter ref="A1:U144"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1273,7 +1303,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8188,5 +8221,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/ORDERS/17130.xlsx
+++ b/data/output/FV2404_FV2310/ORDERS/17130.xlsx
@@ -1844,7 +1844,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2558,7 +2558,7 @@
         <v>259</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2760,7 +2760,7 @@
         <v>260</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4626,7 +4626,7 @@
         <v>264</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4934,7 +4934,7 @@
         <v>265</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5538,7 +5538,7 @@
         <v>268</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6142,7 +6142,7 @@
         <v>270</v>
       </c>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -6558,7 +6558,7 @@
         <v>272</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6712,7 +6712,7 @@
         <v>272</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -6870,7 +6870,7 @@
         <v>272</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7024,7 +7024,7 @@
         <v>274</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7436,7 +7436,7 @@
         <v>276</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7852,7 +7852,7 @@
         <v>278</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8006,7 +8006,7 @@
         <v>278</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8164,7 +8164,7 @@
         <v>278</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8568,7 +8568,7 @@
         <v>279</v>
       </c>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -8880,7 +8880,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N140" s="2"/>
@@ -8972,7 +8972,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N142" s="2"/>
